--- a/data/trans_dic/BARTHEL_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.0574878466732027</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.06258406290827725</v>
+        <v>0.06258406290827727</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.07059428950744384</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01922662911978508</v>
+        <v>0.01900299830896214</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04998130705187766</v>
+        <v>0.05229310387326631</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03616530216765557</v>
+        <v>0.03708525575018656</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04369490638263607</v>
+        <v>0.04609259799325045</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04671189667540968</v>
+        <v>0.04763592594993141</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08475687006975954</v>
+        <v>0.086720887245816</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06341074892865384</v>
+        <v>0.06299598306164025</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06294433276318301</v>
+        <v>0.06444566026910035</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03870191298640373</v>
+        <v>0.03846844481030196</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07763192963479001</v>
+        <v>0.07880235756489265</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05701458808037398</v>
+        <v>0.05704192524916173</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05995324997120544</v>
+        <v>0.05951774604095825</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06362580541204353</v>
+        <v>0.0608012725228249</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1130940089371805</v>
+        <v>0.116764605586571</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08727511464431296</v>
+        <v>0.08865901688823287</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08495176844405242</v>
+        <v>0.08255503268258481</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09771911828620262</v>
+        <v>0.1003063116589211</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1557510990012763</v>
+        <v>0.1615248272422835</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1288222873365152</v>
+        <v>0.1223370650737575</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1022556890215594</v>
+        <v>0.1025054156373533</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07309215204222916</v>
+        <v>0.07549399998632285</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1252530801740817</v>
+        <v>0.1272727371702939</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0972714471749886</v>
+        <v>0.09533183632140085</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08743093678110135</v>
+        <v>0.08666612195059607</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09888120446532433</v>
+        <v>0.1025188508502932</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1841346958885193</v>
+        <v>0.1771785349223298</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1511064092333862</v>
+        <v>0.1533598860597925</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1756419544610665</v>
+        <v>0.1773760614648414</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1574415658311968</v>
+        <v>0.156478827754965</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3370573834250524</v>
+        <v>0.3382900324179371</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2855868853141778</v>
+        <v>0.279852826728652</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3373886317374323</v>
+        <v>0.3363594071501307</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1458634064521358</v>
+        <v>0.1448910844071477</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2885459747723362</v>
+        <v>0.290078816240942</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2481758329215394</v>
+        <v>0.2456179258431793</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2823388886850068</v>
+        <v>0.2835370681769255</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1955635640378007</v>
+        <v>0.1985304721975168</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3028826907032167</v>
+        <v>0.3021446155057952</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2462163687435588</v>
+        <v>0.2457873833625685</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2515795534002881</v>
+        <v>0.2534180471100428</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2490392478432244</v>
+        <v>0.2491509035458136</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.439947961744469</v>
+        <v>0.4393551786785061</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3921020016643418</v>
+        <v>0.3900397953661482</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.405799533107169</v>
+        <v>0.4051443515819805</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2120094246199346</v>
+        <v>0.2133295696434878</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3669948430107541</v>
+        <v>0.3716579201646609</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3227123447461338</v>
+        <v>0.3226359785462677</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3346751758303108</v>
+        <v>0.3344904592272245</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05945337702034552</v>
+        <v>0.06201777712561553</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1194661974566731</v>
+        <v>0.1197834281617317</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09393714285838607</v>
+        <v>0.0950147842748811</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.107518593019347</v>
+        <v>0.1090724252550989</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1090825589652583</v>
+        <v>0.1115440447089625</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2270864013637616</v>
+        <v>0.224475628821827</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1844212478486017</v>
+        <v>0.1876409181414094</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2105090839735098</v>
+        <v>0.2101863468184201</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09493386779726039</v>
+        <v>0.0936404206635955</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1915354371161057</v>
+        <v>0.1897191808320553</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.153781921885389</v>
+        <v>0.1545002727097729</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1696941726477344</v>
+        <v>0.1700733049316157</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.104787350763361</v>
+        <v>0.1073428281719093</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1835594003343589</v>
+        <v>0.1840200374816254</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1436416754500486</v>
+        <v>0.1455002202359778</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1498971791544236</v>
+        <v>0.1516048100562587</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1654076424618103</v>
+        <v>0.1642911756875978</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2922577494977263</v>
+        <v>0.2898526126371199</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2493932630837101</v>
+        <v>0.2514244434300952</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2514352744746131</v>
+        <v>0.2533576031726413</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1318035758450402</v>
+        <v>0.1298715026348456</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.238964065513868</v>
+        <v>0.2356114363057071</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1955905141284803</v>
+        <v>0.1972995935479556</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1994889020732241</v>
+        <v>0.1997102230548681</v>
       </c>
     </row>
     <row r="13">
@@ -1326,40 +1326,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5625</v>
+        <v>5560</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15484</v>
+        <v>16200</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12091</v>
+        <v>12399</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>17787</v>
+        <v>18763</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>16019</v>
+        <v>16336</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>30004</v>
+        <v>30699</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>23954</v>
+        <v>23797</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>27472</v>
+        <v>28127</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>24596</v>
+        <v>24447</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>51531</v>
+        <v>52308</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>40600</v>
+        <v>40619</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>50572</v>
+        <v>50205</v>
       </c>
     </row>
     <row r="7">
@@ -1370,40 +1370,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18616</v>
+        <v>17789</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>35035</v>
+        <v>36172</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>29179</v>
+        <v>29641</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>34582</v>
+        <v>33607</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>33511</v>
+        <v>34398</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>55135</v>
+        <v>57179</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>48664</v>
+        <v>46214</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>44629</v>
+        <v>44738</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>46451</v>
+        <v>47978</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>83141</v>
+        <v>84481</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>69266</v>
+        <v>67885</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>73750</v>
+        <v>73105</v>
       </c>
     </row>
     <row r="8">
@@ -1506,40 +1506,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>20753</v>
+        <v>21517</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>46006</v>
+        <v>44268</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>38834</v>
+        <v>39413</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>53949</v>
+        <v>54482</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>52571</v>
+        <v>52250</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>131108</v>
+        <v>131588</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>114283</v>
+        <v>111988</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>155432</v>
+        <v>154957</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>79319</v>
+        <v>78790</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>184332</v>
+        <v>185311</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>163093</v>
+        <v>161412</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>216792</v>
+        <v>217712</v>
       </c>
     </row>
     <row r="11">
@@ -1550,40 +1550,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>41045</v>
+        <v>41668</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>75676</v>
+        <v>75491</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>63277</v>
+        <v>63167</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>77273</v>
+        <v>77838</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>83156</v>
+        <v>83193</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>171131</v>
+        <v>170900</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>156907</v>
+        <v>156082</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>186948</v>
+        <v>186646</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>115289</v>
+        <v>116007</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>234447</v>
+        <v>237426</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>212076</v>
+        <v>212026</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>256978</v>
+        <v>256836</v>
       </c>
     </row>
     <row r="12">
@@ -1686,40 +1686,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>29873</v>
+        <v>31162</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>66858</v>
+        <v>67035</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>55548</v>
+        <v>56185</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>76793</v>
+        <v>77903</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>73832</v>
+        <v>75498</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>168720</v>
+        <v>166780</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>143467</v>
+        <v>145972</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>188855</v>
+        <v>188566</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>111956</v>
+        <v>110431</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>249496</v>
+        <v>247130</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>210567</v>
+        <v>211551</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>273440</v>
+        <v>274051</v>
       </c>
     </row>
     <row r="15">
@@ -1730,40 +1730,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>52652</v>
+        <v>53936</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>102727</v>
+        <v>102984</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>84939</v>
+        <v>86038</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>107061</v>
+        <v>108281</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>111955</v>
+        <v>111199</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>217140</v>
+        <v>215353</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>194011</v>
+        <v>195591</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>225571</v>
+        <v>227296</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>155437</v>
+        <v>153159</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>311277</v>
+        <v>306910</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>267814</v>
+        <v>270154</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>321450</v>
+        <v>321807</v>
       </c>
     </row>
     <row r="16">
